--- a/Diagram TPA/Full Use Case Descriptions - AW.xlsx
+++ b/Diagram TPA/Full Use Case Descriptions - AW.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://binusianorg-my.sharepoint.com/personal/anthony_chandra_binus_ac_id/Documents/BINUS UNIVERSITY/Assistant/Even 2021-2022/TPA/2.Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Documents\GitHub\TPA-Desktop\Diagram TPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{89028B9D-F097-4734-9DBD-7DE99AD972EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B7BE053-B11B-4036-B8E4-A6364D8D894A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C574B611-EFB0-4ED0-B047-35EEF628E087}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
   <si>
     <t>Scenario</t>
   </si>
@@ -130,21 +130,6 @@
     <t>2.1 System generates invitation link ( By Link ) and sends to user's email ( By Email )</t>
   </si>
   <si>
-    <t>3. User Accepts the invitation link by clicking the link</t>
-  </si>
-  <si>
-    <t>3.1 System adds the invited user to workspace member</t>
-  </si>
-  <si>
-    <t>3.2 System add the workspace to the invited user's joined workspace</t>
-  </si>
-  <si>
-    <t>3. User doesn't have CHello account so is redirected to Register Page</t>
-  </si>
-  <si>
-    <t>3. Invitation link created expired before the user clicks it</t>
-  </si>
-  <si>
     <t>Workspace Admin wants to close the workspace</t>
   </si>
   <si>
@@ -277,9 +262,6 @@
     <t>Apps User can view board and it's details</t>
   </si>
   <si>
-    <t>1. Apps User choose board after searching available boards</t>
-  </si>
-  <si>
     <t>1.1 System checks Board's Visibility</t>
   </si>
   <si>
@@ -302,6 +284,9 @@
   </si>
   <si>
     <t>1.1 &amp; 1.3 Apps User is not part of board's member and its visibility is board-visible</t>
+  </si>
+  <si>
+    <t>1. Apps User choose board after searching available boards in workspace</t>
   </si>
 </sst>
 </file>
@@ -465,6 +450,90 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -473,90 +542,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4613C6-39FD-4FE0-9692-35AE05CC51F1}">
   <dimension ref="C4:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:J4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,225 +879,212 @@
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="3:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="3:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="28" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="3:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="28" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="3:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="3:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="C18:D19"/>
@@ -1128,6 +1100,9 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:J7"/>
     <mergeCell ref="C9:D9"/>
@@ -1152,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3892B1A4-0F23-4CE0-8BD9-B20DEDB6CED9}">
   <dimension ref="C4:J19"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:J4"/>
+    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,223 +1147,220 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="3:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="3:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="3:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="3:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="3:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="28" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="3:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="3:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="3:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="3:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="3:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="E18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="C18:D19"/>
@@ -1404,6 +1376,9 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:J7"/>
     <mergeCell ref="C9:D9"/>
@@ -1428,7 +1403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549F96AD-0041-4296-9E4D-4A4127C3751A}">
   <dimension ref="C4:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H16" sqref="H16:J16"/>
     </sheetView>
   </sheetViews>
@@ -1448,186 +1423,186 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="3:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="3:10" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
+      <c r="H16" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="31" t="s">
-        <v>76</v>
+      <c r="H17" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="30"/>
@@ -1637,39 +1612,38 @@
         <v>10</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="E18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
     <mergeCell ref="C18:D19"/>
     <mergeCell ref="E18:J18"/>
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="C12:D12"/>
@@ -1680,6 +1654,7 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:J7"/>
     <mergeCell ref="C9:D9"/>
@@ -1705,7 +1680,7 @@
   <dimension ref="C4:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:J19"/>
+      <selection activeCell="E7" sqref="E7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1724,221 +1699,218 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="3:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="3:10" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="3:10" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="3:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7" spans="3:10" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="3:10" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="3:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="3:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="3:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="3:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="3:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="3:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="E18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="C18:D19"/>
@@ -1954,6 +1926,9 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:J7"/>
     <mergeCell ref="C9:D9"/>
@@ -1978,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D080C9B-9C48-4380-96DD-0F3CA5176B49}">
   <dimension ref="C4:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:J20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1998,225 +1973,222 @@
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="3:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="3:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="3:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="31" t="s">
-        <v>83</v>
+      <c r="H15" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="30"/>
     </row>
     <row r="16" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="3:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="3:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
+      <c r="H18" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="E19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="E15:G15"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="E16:G16"/>
@@ -2236,6 +2208,9 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="E15:G15"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:J7"/>
     <mergeCell ref="C8:D8"/>
@@ -2258,7 +2233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812CDE3C-ABDA-432E-8330-545695844CB6}">
   <dimension ref="C4:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="H15" sqref="H15:J15"/>
     </sheetView>
   </sheetViews>
@@ -2275,174 +2250,174 @@
         <v>7</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="3:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="30">
